--- a/Team1 project proposal/일정계획.xlsx
+++ b/Team1 project proposal/일정계획.xlsx
@@ -5,7 +5,7 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\공부\컴공\WEB\MyStyle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\공부\컴공\WEB\Perseuse\Projects_Description\Team1 project proposal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
@@ -21,169 +21,170 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
   <x:si>
+    <x:t>서버,DB의 경험이 없어 흐름이나 개발 일정을 파악하기 쉽지 않아 큰 틀로만 일정을 잡아 놓았습니다. 공부를 진행하면서 세부 일정을 계획할 예정입니다. (공유:GoogleDocs)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>퍼블
+리싱</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>디자인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업무</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색결과 페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 작성 페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인+HOVER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이용자화면 테스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이용자개인별페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>커밋 예정일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일정 게획</x:t>
+  </x:si>
+  <x:si>
     <x:t xml:space="preserve">정혜수 </x:t>
   </x:si>
   <x:si>
-    <x:t>서버,DB의 경험이 없어 흐름이나 개발 일정을 파악하기 쉽지 않아 큰 틀로만 일정을 잡아 놓았습니다. 공부를 진행하면서 세부 일정을 계획할 예정입니다. (공유:GoogleDocs)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색결과 페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이용자화면 테스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 작성 페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메인+HOVER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이용자개인별페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일정 게획</x:t>
-  </x:si>
-  <x:si>
     <x:t>게시글 페이지</x:t>
   </x:si>
   <x:si>
-    <x:t>메인페이지</x:t>
-  </x:si>
-  <x:si>
     <x:t>로그인페이지</x:t>
   </x:si>
   <x:si>
-    <x:t>커밋 예정일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>퍼블리싱</x:t>
+    <x:t>25일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개발</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색창</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>담당자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>파트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정혜수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박수현</x:t>
   </x:si>
   <x:si>
     <x:t>Dress Changes Style 구축 일정 (WBS)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>디자인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>업무</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정혜수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색창</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>파트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>담당자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>박수현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개발</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -338,7 +339,7 @@
       </mc:Fallback>
     </mc:AlternateContent>
   </x:fonts>
-  <x:fills count="9">
+  <x:fills count="10">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
@@ -383,7 +384,13 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="ffecd174"/>
+        <x:fgColor rgb="ffc0cdef"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="ff6182d6"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
@@ -689,7 +696,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="66">
+  <x:cellXfs count="70">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -964,167 +971,189 @@
     <x:xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
+    <x:xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
         <x:xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -1138,6 +1167,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1951,16 +1981,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="B1:AJ23"/>
+  <x:dimension ref="A1:AJ23"/>
   <x:sheetViews>
     <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:pane xSplit="4" ySplit="3" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
-      <x:selection pane="bottomRight" activeCell="C24" activeCellId="0" sqref="C24:C24"/>
+      <x:pane xSplit="4" ySplit="3" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
+      <x:selection pane="bottomRight" activeCell="K22" activeCellId="0" sqref="K22:K22"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
   <x:cols>
-    <x:col min="1" max="1" width="1.25" customWidth="1"/>
+    <x:col min="1" max="1" width="4.19921875" customWidth="1"/>
+    <x:col min="2" max="2" width="4.6015625" customWidth="1"/>
     <x:col min="3" max="3" width="23.25" bestFit="1" customWidth="1"/>
     <x:col min="4" max="4" width="6.6015625" style="6" customWidth="1"/>
     <x:col min="5" max="13" width="3.625" customWidth="1"/>
@@ -1969,7 +2000,7 @@
   <x:sheetData>
     <x:row r="1" spans="2:14" ht="40.5" hidden="1" customHeight="1">
       <x:c r="B1" s="22" t="s">
-        <x:v>13</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C1" s="22"/>
       <x:c r="D1" s="26"/>
@@ -1991,202 +2022,202 @@
       <x:c r="E2" s="26"/>
     </x:row>
     <x:row r="3" spans="2:36">
-      <x:c r="B3" s="61" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C3" s="62"/>
-      <x:c r="D3" s="63"/>
-      <x:c r="E3" s="65" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="F3" s="65"/>
-      <x:c r="G3" s="65"/>
-      <x:c r="H3" s="65"/>
-      <x:c r="I3" s="65"/>
-      <x:c r="J3" s="65"/>
-      <x:c r="K3" s="65"/>
-      <x:c r="L3" s="65"/>
-      <x:c r="M3" s="65"/>
-      <x:c r="N3" s="65"/>
-      <x:c r="O3" s="65"/>
-      <x:c r="P3" s="65"/>
-      <x:c r="Q3" s="65"/>
-      <x:c r="R3" s="65"/>
-      <x:c r="S3" s="65"/>
-      <x:c r="T3" s="65"/>
-      <x:c r="U3" s="65"/>
-      <x:c r="V3" s="65"/>
-      <x:c r="W3" s="65"/>
-      <x:c r="X3" s="65"/>
-      <x:c r="Y3" s="65"/>
-      <x:c r="Z3" s="65"/>
-      <x:c r="AA3" s="65"/>
-      <x:c r="AB3" s="65"/>
-      <x:c r="AC3" s="65"/>
-      <x:c r="AD3" s="65"/>
-      <x:c r="AE3" s="65"/>
-      <x:c r="AF3" s="65"/>
-      <x:c r="AG3" s="65"/>
-      <x:c r="AH3" s="65"/>
-      <x:c r="AI3" s="65"/>
+      <x:c r="B3" s="58" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C3" s="59"/>
+      <x:c r="D3" s="60"/>
+      <x:c r="E3" s="62" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="F3" s="62"/>
+      <x:c r="G3" s="62"/>
+      <x:c r="H3" s="62"/>
+      <x:c r="I3" s="62"/>
+      <x:c r="J3" s="62"/>
+      <x:c r="K3" s="62"/>
+      <x:c r="L3" s="62"/>
+      <x:c r="M3" s="62"/>
+      <x:c r="N3" s="62"/>
+      <x:c r="O3" s="62"/>
+      <x:c r="P3" s="62"/>
+      <x:c r="Q3" s="62"/>
+      <x:c r="R3" s="62"/>
+      <x:c r="S3" s="62"/>
+      <x:c r="T3" s="62"/>
+      <x:c r="U3" s="62"/>
+      <x:c r="V3" s="62"/>
+      <x:c r="W3" s="62"/>
+      <x:c r="X3" s="62"/>
+      <x:c r="Y3" s="62"/>
+      <x:c r="Z3" s="62"/>
+      <x:c r="AA3" s="62"/>
+      <x:c r="AB3" s="62"/>
+      <x:c r="AC3" s="62"/>
+      <x:c r="AD3" s="62"/>
+      <x:c r="AE3" s="62"/>
+      <x:c r="AF3" s="62"/>
+      <x:c r="AG3" s="62"/>
+      <x:c r="AH3" s="62"/>
+      <x:c r="AI3" s="62"/>
       <x:c r="AJ3" s="8"/>
     </x:row>
     <x:row r="4" spans="2:35">
       <x:c r="B4" s="23" t="s">
-        <x:v>24</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C4" s="23" t="s">
-        <x:v>17</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D4" s="23" t="s">
-        <x:v>31</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E4" s="24" t="s">
-        <x:v>36</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F4" s="37" t="s">
-        <x:v>20</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G4" s="35" t="s">
-        <x:v>28</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H4" s="25" t="s">
         <x:v>33</x:v>
       </x:c>
       <x:c r="I4" s="38" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="J4" s="25" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="K4" s="25" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="L4" s="38" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="M4" s="37" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="N4" s="35" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="O4" s="25" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="P4" s="38" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="J4" s="25" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="K4" s="25" t="s">
+      <x:c r="Q4" s="25" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="R4" s="25" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="S4" s="38" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="T4" s="37" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="U4" s="35" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="V4" s="25" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="W4" s="38" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="X4" s="25" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="Y4" s="25" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="Z4" s="38" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="AA4" s="37" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="AB4" s="35" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AC4" s="25" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="AD4" s="38" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="AE4" s="25" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="L4" s="38" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="M4" s="37" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="N4" s="35" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="O4" s="25" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="P4" s="38" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="Q4" s="25" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="R4" s="25" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="S4" s="38" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="T4" s="37" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="U4" s="35" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="V4" s="25" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="W4" s="38" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="X4" s="25" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="Y4" s="25" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="Z4" s="38" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="AA4" s="37" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="AB4" s="35" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="AC4" s="25" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="AD4" s="38" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="AE4" s="25" t="s">
-        <x:v>26</x:v>
-      </x:c>
       <x:c r="AF4" s="25" t="s">
-        <x:v>43</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="AG4" s="38" t="s">
-        <x:v>18</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="AH4" s="37" t="s">
-        <x:v>45</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="AI4" s="36" t="s">
-        <x:v>30</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:35" ht="0" hidden="1" customHeight="1">
-      <x:c r="B5" s="50" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C5" s="64"/>
-      <x:c r="D5" s="64"/>
-      <x:c r="E5" s="64"/>
-      <x:c r="F5" s="64"/>
-      <x:c r="G5" s="64"/>
-      <x:c r="H5" s="64"/>
-      <x:c r="I5" s="64"/>
-      <x:c r="J5" s="64"/>
-      <x:c r="K5" s="64"/>
-      <x:c r="L5" s="64"/>
-      <x:c r="M5" s="64"/>
-      <x:c r="N5" s="64"/>
-      <x:c r="O5" s="64"/>
-      <x:c r="P5" s="64"/>
-      <x:c r="Q5" s="64"/>
-      <x:c r="R5" s="64"/>
-      <x:c r="S5" s="64"/>
-      <x:c r="T5" s="64"/>
-      <x:c r="U5" s="64"/>
-      <x:c r="V5" s="64"/>
-      <x:c r="W5" s="64"/>
-      <x:c r="X5" s="64"/>
-      <x:c r="Y5" s="64"/>
-      <x:c r="Z5" s="64"/>
-      <x:c r="AA5" s="64"/>
-      <x:c r="AB5" s="64"/>
-      <x:c r="AC5" s="64"/>
-      <x:c r="AD5" s="64"/>
-      <x:c r="AE5" s="64"/>
-      <x:c r="AF5" s="64"/>
-      <x:c r="AG5" s="64"/>
-      <x:c r="AH5" s="64"/>
-      <x:c r="AI5" s="64"/>
+      <x:c r="B5" s="48" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C5" s="61"/>
+      <x:c r="D5" s="61"/>
+      <x:c r="E5" s="61"/>
+      <x:c r="F5" s="61"/>
+      <x:c r="G5" s="61"/>
+      <x:c r="H5" s="61"/>
+      <x:c r="I5" s="61"/>
+      <x:c r="J5" s="61"/>
+      <x:c r="K5" s="61"/>
+      <x:c r="L5" s="61"/>
+      <x:c r="M5" s="61"/>
+      <x:c r="N5" s="61"/>
+      <x:c r="O5" s="61"/>
+      <x:c r="P5" s="61"/>
+      <x:c r="Q5" s="61"/>
+      <x:c r="R5" s="61"/>
+      <x:c r="S5" s="61"/>
+      <x:c r="T5" s="61"/>
+      <x:c r="U5" s="61"/>
+      <x:c r="V5" s="61"/>
+      <x:c r="W5" s="61"/>
+      <x:c r="X5" s="61"/>
+      <x:c r="Y5" s="61"/>
+      <x:c r="Z5" s="61"/>
+      <x:c r="AA5" s="61"/>
+      <x:c r="AB5" s="61"/>
+      <x:c r="AC5" s="61"/>
+      <x:c r="AD5" s="61"/>
+      <x:c r="AE5" s="61"/>
+      <x:c r="AF5" s="61"/>
+      <x:c r="AG5" s="61"/>
+      <x:c r="AH5" s="61"/>
+      <x:c r="AI5" s="61"/>
     </x:row>
     <x:row r="6" spans="2:35" ht="17.149999999999999">
-      <x:c r="B6" s="58" t="s">
-        <x:v>12</x:v>
+      <x:c r="B6" s="69" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="16" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D6" s="19" t="s">
-        <x:v>37</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E6" s="40"/>
       <x:c r="F6" s="40"/>
       <x:c r="G6" s="40" t="s">
-        <x:v>5</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H6" s="40"/>
       <x:c r="I6" s="43"/>
@@ -2199,7 +2230,7 @@
       <x:c r="P6" s="17"/>
       <x:c r="Q6" s="40"/>
       <x:c r="R6" s="40" t="s">
-        <x:v>21</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="S6" s="43"/>
       <x:c r="T6" s="29"/>
@@ -2220,12 +2251,12 @@
       <x:c r="AI6" s="30"/>
     </x:row>
     <x:row r="7" spans="2:35">
-      <x:c r="B7" s="59"/>
+      <x:c r="B7" s="56"/>
       <x:c r="C7" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D7" s="7" t="s">
-        <x:v>37</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E7" s="28"/>
       <x:c r="F7" s="28"/>
@@ -2260,12 +2291,12 @@
       <x:c r="AI7" s="31"/>
     </x:row>
     <x:row r="8" spans="2:35">
-      <x:c r="B8" s="59"/>
+      <x:c r="B8" s="56"/>
       <x:c r="C8" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D8" s="7" t="s">
-        <x:v>19</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E8" s="28"/>
       <x:c r="F8" s="28"/>
@@ -2286,13 +2317,13 @@
       <x:c r="U8" s="28"/>
       <x:c r="V8" s="28"/>
       <x:c r="W8" s="28"/>
-      <x:c r="X8" s="49"/>
-      <x:c r="Y8" s="49"/>
-      <x:c r="Z8" s="49"/>
-      <x:c r="AA8" s="49"/>
-      <x:c r="AB8" s="49"/>
-      <x:c r="AC8" s="49"/>
-      <x:c r="AD8" s="44"/>
+      <x:c r="X8" s="63"/>
+      <x:c r="Y8" s="63"/>
+      <x:c r="Z8" s="63"/>
+      <x:c r="AA8" s="63"/>
+      <x:c r="AB8" s="63"/>
+      <x:c r="AC8" s="63"/>
+      <x:c r="AD8" s="66"/>
       <x:c r="AE8" s="28"/>
       <x:c r="AF8" s="28"/>
       <x:c r="AG8" s="28"/>
@@ -2300,12 +2331,12 @@
       <x:c r="AI8" s="31"/>
     </x:row>
     <x:row r="9" spans="2:35">
-      <x:c r="B9" s="59"/>
+      <x:c r="B9" s="56"/>
       <x:c r="C9" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D9" s="7" t="s">
-        <x:v>37</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E9" s="9"/>
       <x:c r="F9" s="9"/>
@@ -2340,21 +2371,21 @@
       <x:c r="AI9" s="31"/>
     </x:row>
     <x:row r="10" spans="2:35">
-      <x:c r="B10" s="59"/>
+      <x:c r="B10" s="56"/>
       <x:c r="C10" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D10" s="7" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E10" s="49"/>
-      <x:c r="F10" s="49"/>
-      <x:c r="G10" s="49"/>
-      <x:c r="H10" s="49"/>
-      <x:c r="I10" s="49"/>
-      <x:c r="J10" s="49"/>
-      <x:c r="K10" s="49"/>
-      <x:c r="L10" s="44"/>
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="E10" s="63"/>
+      <x:c r="F10" s="63"/>
+      <x:c r="G10" s="63"/>
+      <x:c r="H10" s="63"/>
+      <x:c r="I10" s="63"/>
+      <x:c r="J10" s="63"/>
+      <x:c r="K10" s="63"/>
+      <x:c r="L10" s="66"/>
       <x:c r="M10" s="9"/>
       <x:c r="N10" s="9"/>
       <x:c r="O10" s="9"/>
@@ -2380,21 +2411,21 @@
       <x:c r="AI10" s="31"/>
     </x:row>
     <x:row r="11" spans="2:35">
-      <x:c r="B11" s="59"/>
+      <x:c r="B11" s="56"/>
       <x:c r="C11" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D11" s="7" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E11" s="49"/>
-      <x:c r="F11" s="49"/>
-      <x:c r="G11" s="49"/>
-      <x:c r="H11" s="49"/>
-      <x:c r="I11" s="49"/>
-      <x:c r="J11" s="49"/>
-      <x:c r="K11" s="49"/>
-      <x:c r="L11" s="44"/>
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="E11" s="63"/>
+      <x:c r="F11" s="63"/>
+      <x:c r="G11" s="63"/>
+      <x:c r="H11" s="63"/>
+      <x:c r="I11" s="63"/>
+      <x:c r="J11" s="63"/>
+      <x:c r="K11" s="63"/>
+      <x:c r="L11" s="66"/>
       <x:c r="M11" s="9"/>
       <x:c r="N11" s="9"/>
       <x:c r="O11" s="9"/>
@@ -2420,14 +2451,14 @@
       <x:c r="AI11" s="31"/>
     </x:row>
     <x:row r="12" spans="2:35" ht="17.149999999999999">
-      <x:c r="B12" s="56" t="s">
-        <x:v>54</x:v>
+      <x:c r="B12" s="53" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C12" s="16" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D12" s="19" t="s">
-        <x:v>37</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E12" s="17"/>
       <x:c r="F12" s="17"/>
@@ -2462,12 +2493,12 @@
       <x:c r="AI12" s="30"/>
     </x:row>
     <x:row r="13" spans="2:35">
-      <x:c r="B13" s="57"/>
+      <x:c r="B13" s="54"/>
       <x:c r="C13" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D13" s="7" t="s">
-        <x:v>37</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E13" s="9"/>
       <x:c r="F13" s="9"/>
@@ -2502,12 +2533,12 @@
       <x:c r="AI13" s="31"/>
     </x:row>
     <x:row r="14" spans="2:35">
-      <x:c r="B14" s="57"/>
+      <x:c r="B14" s="54"/>
       <x:c r="C14" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D14" s="7" t="s">
-        <x:v>19</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E14" s="9"/>
       <x:c r="F14" s="9"/>
@@ -2528,26 +2559,26 @@
       <x:c r="U14" s="28"/>
       <x:c r="V14" s="28"/>
       <x:c r="W14" s="28"/>
-      <x:c r="X14" s="49"/>
-      <x:c r="Y14" s="49"/>
-      <x:c r="Z14" s="49"/>
-      <x:c r="AA14" s="49"/>
-      <x:c r="AB14" s="49"/>
-      <x:c r="AC14" s="49"/>
-      <x:c r="AD14" s="49"/>
-      <x:c r="AE14" s="49"/>
-      <x:c r="AF14" s="49"/>
-      <x:c r="AG14" s="44"/>
+      <x:c r="X14" s="63"/>
+      <x:c r="Y14" s="63"/>
+      <x:c r="Z14" s="63"/>
+      <x:c r="AA14" s="63"/>
+      <x:c r="AB14" s="63"/>
+      <x:c r="AC14" s="63"/>
+      <x:c r="AD14" s="63"/>
+      <x:c r="AE14" s="63"/>
+      <x:c r="AF14" s="63"/>
+      <x:c r="AG14" s="66"/>
       <x:c r="AH14" s="28"/>
       <x:c r="AI14" s="31"/>
     </x:row>
     <x:row r="15" spans="2:35" customFormat="1">
-      <x:c r="B15" s="58"/>
+      <x:c r="B15" s="55"/>
       <x:c r="C15" s="39" t="s">
-        <x:v>2</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D15" s="18" t="s">
-        <x:v>37</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E15" s="14"/>
       <x:c r="F15" s="14"/>
@@ -2582,32 +2613,32 @@
       <x:c r="AI15" s="33"/>
     </x:row>
     <x:row r="16" spans="2:35" customFormat="1">
-      <x:c r="B16" s="59"/>
+      <x:c r="B16" s="56"/>
       <x:c r="C16" s="39" t="s">
-        <x:v>4</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D16" s="18" t="s">
-        <x:v>19</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="14"/>
       <x:c r="F16" s="14"/>
       <x:c r="G16" s="14"/>
       <x:c r="H16" s="14"/>
       <x:c r="I16" s="14"/>
-      <x:c r="J16" s="48"/>
-      <x:c r="K16" s="48"/>
-      <x:c r="L16" s="48"/>
-      <x:c r="M16" s="48"/>
-      <x:c r="N16" s="48"/>
-      <x:c r="O16" s="48"/>
-      <x:c r="P16" s="48"/>
-      <x:c r="Q16" s="48"/>
-      <x:c r="R16" s="48"/>
-      <x:c r="S16" s="48"/>
-      <x:c r="T16" s="48"/>
-      <x:c r="U16" s="48"/>
-      <x:c r="V16" s="48"/>
-      <x:c r="W16" s="47"/>
+      <x:c r="J16" s="64"/>
+      <x:c r="K16" s="64"/>
+      <x:c r="L16" s="64"/>
+      <x:c r="M16" s="64"/>
+      <x:c r="N16" s="64"/>
+      <x:c r="O16" s="64"/>
+      <x:c r="P16" s="64"/>
+      <x:c r="Q16" s="64"/>
+      <x:c r="R16" s="64"/>
+      <x:c r="S16" s="64"/>
+      <x:c r="T16" s="64"/>
+      <x:c r="U16" s="64"/>
+      <x:c r="V16" s="64"/>
+      <x:c r="W16" s="67"/>
       <x:c r="X16" s="32"/>
       <x:c r="Y16" s="32"/>
       <x:c r="Z16" s="32"/>
@@ -2622,32 +2653,32 @@
       <x:c r="AI16" s="33"/>
     </x:row>
     <x:row r="17" spans="2:35" customFormat="1">
-      <x:c r="B17" s="59"/>
+      <x:c r="B17" s="56"/>
       <x:c r="C17" s="39" t="s">
-        <x:v>8</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D17" s="18" t="s">
-        <x:v>19</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E17" s="14"/>
       <x:c r="F17" s="14"/>
       <x:c r="G17" s="14"/>
       <x:c r="H17" s="14"/>
       <x:c r="I17" s="14"/>
-      <x:c r="J17" s="48"/>
-      <x:c r="K17" s="48"/>
-      <x:c r="L17" s="48"/>
-      <x:c r="M17" s="48"/>
-      <x:c r="N17" s="48"/>
-      <x:c r="O17" s="48"/>
-      <x:c r="P17" s="48"/>
-      <x:c r="Q17" s="48"/>
-      <x:c r="R17" s="48"/>
-      <x:c r="S17" s="48"/>
-      <x:c r="T17" s="48"/>
-      <x:c r="U17" s="48"/>
-      <x:c r="V17" s="48"/>
-      <x:c r="W17" s="47"/>
+      <x:c r="J17" s="64"/>
+      <x:c r="K17" s="64"/>
+      <x:c r="L17" s="64"/>
+      <x:c r="M17" s="64"/>
+      <x:c r="N17" s="64"/>
+      <x:c r="O17" s="64"/>
+      <x:c r="P17" s="64"/>
+      <x:c r="Q17" s="64"/>
+      <x:c r="R17" s="64"/>
+      <x:c r="S17" s="64"/>
+      <x:c r="T17" s="64"/>
+      <x:c r="U17" s="64"/>
+      <x:c r="V17" s="64"/>
+      <x:c r="W17" s="67"/>
       <x:c r="X17" s="32"/>
       <x:c r="Y17" s="32"/>
       <x:c r="Z17" s="32"/>
@@ -2662,7 +2693,7 @@
       <x:c r="AI17" s="33"/>
     </x:row>
     <x:row r="18" spans="2:35" ht="17.149999999999999">
-      <x:c r="B18" s="60"/>
+      <x:c r="B18" s="57"/>
       <x:c r="C18" s="11"/>
       <x:c r="D18" s="12"/>
       <x:c r="E18" s="13"/>
@@ -2698,11 +2729,11 @@
       <x:c r="AI18" s="34"/>
     </x:row>
     <x:row r="19" spans="2:35">
-      <x:c r="B19" s="51" t="s">
-        <x:v>39</x:v>
+      <x:c r="B19" s="49" t="s">
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C19" s="15" t="s">
-        <x:v>3</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D19" s="20"/>
       <x:c r="E19" s="10"/>
@@ -2739,25 +2770,26 @@
     </x:row>
     <x:row r="20" spans="2:2">
       <x:c r="B20" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="2:3">
-      <x:c r="B21" s="52"/>
-      <x:c r="C21" s="53" t="s">
-        <x:v>11</x:v>
+    <x:row r="21" spans="1:3">
+      <x:c r="A21" s="68"/>
+      <x:c r="B21" s="50"/>
+      <x:c r="C21" s="51" t="s">
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="2:3">
-      <x:c r="B22" s="54"/>
+      <x:c r="B22" s="52"/>
       <x:c r="C22" t="s">
-        <x:v>37</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="2:3">
-      <x:c r="B23" s="55"/>
+      <x:c r="B23" s="65"/>
       <x:c r="C23" t="s">
-        <x:v>0</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
